--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_Techglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="42" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="128">
   <si>
     <t>STT</t>
   </si>
@@ -261,9 +261,6 @@
     <t>CS</t>
   </si>
   <si>
-    <t>Thiết bị không nhận sim</t>
-  </si>
-  <si>
     <t>Techglobal</t>
   </si>
   <si>
@@ -385,6 +382,54 @@
   </si>
   <si>
     <t xml:space="preserve">TG.007.---16.051017 </t>
+  </si>
+  <si>
+    <t>X.3.0.0.00041.250815</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>Version B.2.00</t>
+  </si>
+  <si>
+    <t>203.162.121.068,09004</t>
+  </si>
+  <si>
+    <t>1644076469/ 013226003588338</t>
+  </si>
+  <si>
+    <t>X.3.0.0.00042.250815</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi GPS</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>203.162.121.024,01102</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>203.162.121.025,01102</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00001.221117</t>
+  </si>
+  <si>
+    <t>203.162.121.025,09008</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi IC giao tiếp</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>1267734565/865904027264214</t>
   </si>
 </sst>
 </file>
@@ -805,6 +850,30 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -822,30 +891,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1156,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1189,43 +1234,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="76"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1270,58 +1315,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="69" t="s">
         <v>1</v>
       </c>
@@ -1346,23 +1391,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1374,7 +1419,7 @@
       </c>
       <c r="C6" s="63"/>
       <c r="D6" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="38">
         <v>865904020106529</v>
@@ -1384,11 +1429,21 @@
         <v>62</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="I6" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>87</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
         <v>65</v>
@@ -1404,7 +1459,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1421,7 +1476,7 @@
       </c>
       <c r="C7" s="63"/>
       <c r="D7" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="38">
         <v>865904027264214</v>
@@ -1430,10 +1485,14 @@
       <c r="G7" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="68"/>
+      <c r="H7" s="68" t="s">
+        <v>127</v>
+      </c>
       <c r="I7" s="54"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="39"/>
+      <c r="K7" s="39" t="s">
+        <v>117</v>
+      </c>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
       <c r="N7" s="1"/>
@@ -1451,7 +1510,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1466,21 +1525,31 @@
       </c>
       <c r="C8" s="63"/>
       <c r="D8" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="71" t="s">
         <v>76</v>
-      </c>
-      <c r="E8" s="71" t="s">
-        <v>77</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
+      <c r="H8" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>115</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="K8" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="39" t="s">
         <v>65</v>
@@ -1496,7 +1565,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1511,7 +1580,7 @@
       </c>
       <c r="C9" s="63"/>
       <c r="D9" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="38">
         <v>864161026905096</v>
@@ -1521,9 +1590,13 @@
         <v>62</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
+      <c r="I9" s="48" t="s">
+        <v>124</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="39"/>
+      <c r="K9" s="39" t="s">
+        <v>123</v>
+      </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
       <c r="N9" s="1"/>
@@ -1541,7 +1614,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="70"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1556,7 +1629,7 @@
       </c>
       <c r="C10" s="63"/>
       <c r="D10" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="38">
         <v>864161020965484</v>
@@ -1566,10 +1639,18 @@
         <v>62</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="58"/>
+      <c r="I10" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" s="58" t="s">
+        <v>117</v>
+      </c>
       <c r="M10" s="39"/>
       <c r="N10" s="1"/>
       <c r="O10" s="39"/>
@@ -1578,7 +1659,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1607,7 +1688,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1636,7 +1717,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1667,7 +1748,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1696,7 +1777,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1725,7 +1806,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1754,7 +1835,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2985,13 +3066,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3003,6 +3077,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3046,43 +3127,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="76"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3127,58 +3208,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="69" t="s">
         <v>1</v>
       </c>
@@ -3203,23 +3284,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3231,7 +3312,7 @@
       </c>
       <c r="C6" s="63"/>
       <c r="D6" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="38">
         <v>865209034382862</v>
@@ -3242,19 +3323,19 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>86</v>
-      </c>
       <c r="M6" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
@@ -3267,11 +3348,11 @@
         <v>67</v>
       </c>
       <c r="R6" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3288,7 +3369,7 @@
       </c>
       <c r="C7" s="63"/>
       <c r="D7" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="38">
         <v>863586032938783</v>
@@ -3299,13 +3380,13 @@
       </c>
       <c r="H7" s="68"/>
       <c r="I7" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L7" s="39"/>
       <c r="M7" s="39"/>
@@ -3324,7 +3405,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3339,7 +3420,7 @@
       </c>
       <c r="C8" s="63"/>
       <c r="D8" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="38">
         <v>863586032854196</v>
@@ -3351,7 +3432,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="54"/>
       <c r="J8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
@@ -3371,7 +3452,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3408,7 +3489,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="70"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3437,7 +3518,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3466,7 +3547,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3495,7 +3576,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3526,7 +3607,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3555,7 +3636,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3584,7 +3665,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3613,7 +3694,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4844,13 +4925,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4862,6 +4936,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4872,7 +4953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -4905,43 +4986,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="76"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4986,58 +5067,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="69" t="s">
         <v>1</v>
       </c>
@@ -5062,23 +5143,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="69" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5090,7 +5171,7 @@
       </c>
       <c r="C6" s="63"/>
       <c r="D6" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="38">
         <v>866593020409089</v>
@@ -5101,11 +5182,11 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -5124,7 +5205,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5163,7 +5244,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5200,7 +5281,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5237,7 +5318,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="70"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5266,7 +5347,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5295,7 +5376,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5324,7 +5405,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5355,7 +5436,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5384,7 +5465,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5413,7 +5494,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5442,7 +5523,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6673,13 +6754,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6691,6 +6765,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6701,8 +6782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6734,43 +6815,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="76"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -6815,58 +6896,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -6891,23 +6972,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6919,7 +7000,7 @@
       </c>
       <c r="C6" s="63"/>
       <c r="D6" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="38">
         <v>868926033969152</v>
@@ -6930,19 +7011,19 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="K6" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" s="39" t="s">
+      <c r="M6" s="39" t="s">
         <v>110</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>111</v>
       </c>
       <c r="N6" s="1">
         <v>20000</v>
@@ -6961,7 +7042,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6992,7 +7073,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7021,7 +7102,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7050,7 +7131,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7079,7 +7160,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7108,7 +7189,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7137,7 +7218,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7168,7 +7249,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7197,7 +7278,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7226,7 +7307,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7255,7 +7336,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8486,13 +8567,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8504,6 +8578,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8515,7 +8596,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8547,43 +8628,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="76"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -8628,58 +8709,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -8704,23 +8785,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8742,11 +8823,15 @@
         <v>62</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
+      <c r="I6" s="54" t="s">
+        <v>122</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="58"/>
+        <v>93</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>121</v>
+      </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
         <v>69</v>
@@ -8768,7 +8853,7 @@
         <v>70</v>
       </c>
       <c r="T6" s="67"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8795,11 +8880,15 @@
         <v>62</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
+      <c r="I7" s="54" t="s">
+        <v>120</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="39"/>
+        <v>118</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>119</v>
+      </c>
       <c r="L7" s="39"/>
       <c r="M7" s="39" t="s">
         <v>69</v>
@@ -8821,7 +8910,7 @@
         <v>70</v>
       </c>
       <c r="T7" s="67"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8849,7 +8938,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8878,7 +8967,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8907,7 +8996,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8936,7 +9025,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8965,7 +9054,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8996,7 +9085,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -9025,7 +9114,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -9054,7 +9143,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -9083,7 +9172,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10314,13 +10403,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10332,6 +10414,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10343,7 +10432,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="E7:J7"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10375,43 +10464,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="76"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -10456,58 +10545,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -10532,23 +10621,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10560,7 +10649,7 @@
       </c>
       <c r="C6" s="63"/>
       <c r="D6" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="38">
         <v>868183037822306</v>
@@ -10571,19 +10660,19 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K6" s="39" t="s">
         <v>64</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
@@ -10596,11 +10685,11 @@
         <v>67</v>
       </c>
       <c r="R6" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10617,7 +10706,7 @@
       </c>
       <c r="C7" s="63"/>
       <c r="D7" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="38">
         <v>867717030421375</v>
@@ -10628,16 +10717,16 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="39" t="s">
         <v>91</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>92</v>
       </c>
       <c r="M7" s="39"/>
       <c r="N7" s="1"/>
@@ -10653,7 +10742,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10668,32 +10757,32 @@
       </c>
       <c r="C8" s="63"/>
       <c r="D8" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="38">
         <v>868183034529425</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>62</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>92</v>
-      </c>
       <c r="M8" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="39" t="s">
@@ -10710,7 +10799,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10725,7 +10814,7 @@
       </c>
       <c r="C9" s="63"/>
       <c r="D9" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="38">
         <v>868183038049263</v>
@@ -10736,16 +10825,16 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K9" s="39" t="s">
         <v>64</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M9" s="39"/>
       <c r="N9" s="1"/>
@@ -10755,7 +10844,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10770,7 +10859,7 @@
       </c>
       <c r="C10" s="63"/>
       <c r="D10" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="38">
         <v>868183038542754</v>
@@ -10781,14 +10870,14 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10" s="39"/>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="39" t="s">
         <v>38</v>
@@ -10808,7 +10897,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10823,7 +10912,7 @@
       </c>
       <c r="C11" s="63"/>
       <c r="D11" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="38">
         <v>868183034638523</v>
@@ -10834,19 +10923,19 @@
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="39" t="s">
@@ -10863,7 +10952,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10878,7 +10967,7 @@
       </c>
       <c r="C12" s="63"/>
       <c r="D12" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="38">
         <v>868183034629936</v>
@@ -10889,14 +10978,14 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="39" t="s">
         <v>64</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M12" s="39" t="s">
         <v>38</v>
@@ -10916,7 +11005,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10933,7 +11022,7 @@
       </c>
       <c r="C13" s="63"/>
       <c r="D13" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="38">
         <v>868183034701727</v>
@@ -10944,19 +11033,19 @@
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="K13" s="39" t="s">
         <v>64</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M13" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="39" t="s">
@@ -10973,7 +11062,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10988,7 +11077,7 @@
       </c>
       <c r="C14" s="63"/>
       <c r="D14" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="38">
         <v>860157040214337</v>
@@ -10999,19 +11088,19 @@
       </c>
       <c r="H14" s="37"/>
       <c r="I14" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="39" t="s">
@@ -11028,7 +11117,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11043,7 +11132,7 @@
       </c>
       <c r="C15" s="63"/>
       <c r="D15" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="38">
         <v>868183034665716</v>
@@ -11054,16 +11143,16 @@
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L15" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M15" s="39" t="s">
         <v>38</v>
@@ -11081,7 +11170,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11096,7 +11185,7 @@
       </c>
       <c r="C16" s="63"/>
       <c r="D16" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="38">
         <v>868183038002288</v>
@@ -11107,19 +11196,19 @@
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K16" s="39" t="s">
         <v>64</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M16" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="39" t="s">
@@ -11132,11 +11221,11 @@
         <v>67</v>
       </c>
       <c r="R16" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12367,13 +12456,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12385,6 +12467,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12428,43 +12517,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="76"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="84"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -12509,58 +12598,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="80" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -12585,23 +12674,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="80"/>
       <c r="P5" s="86"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12627,7 +12716,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12658,7 +12747,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12687,7 +12776,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12716,7 +12805,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12745,7 +12834,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12774,7 +12863,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12803,7 +12892,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12834,7 +12923,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12863,7 +12952,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12892,7 +12981,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12921,7 +13010,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14152,6 +14241,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14163,13 +14259,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_Techglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_Techglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="42" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="153">
   <si>
     <t>STT</t>
   </si>
@@ -496,6 +496,15 @@
   </si>
   <si>
     <t>203.162.121.044,1202</t>
+  </si>
+  <si>
+    <t>Không rõ</t>
+  </si>
+  <si>
+    <t>Thay khay sim</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -3196,8 +3205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S9"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3579,7 +3588,9 @@
       <c r="B9" s="62">
         <v>44649</v>
       </c>
-      <c r="C9" s="62"/>
+      <c r="C9" s="62">
+        <v>44657</v>
+      </c>
       <c r="D9" s="36" t="s">
         <v>76</v>
       </c>
@@ -3600,7 +3611,9 @@
       <c r="M9" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="O9" s="38" t="s">
         <v>128</v>
       </c>
@@ -3664,8 +3677,8 @@
       <c r="I11" s="53"/>
       <c r="J11" s="1"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="38"/>
       <c r="P11" s="1"/>
@@ -3692,8 +3705,6 @@
       <c r="H12" s="1"/>
       <c r="I12" s="53"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
       <c r="M12" s="38"/>
       <c r="N12" s="1"/>
       <c r="O12" s="38"/>
@@ -5079,8 +5090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S7"/>
+    <sheetView showZeros="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6918,8 +6929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R8"/>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7196,7 +7207,7 @@
         <v>44649</v>
       </c>
       <c r="C7" s="62">
-        <v>44651</v>
+        <v>44657</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>72</v>
@@ -7251,7 +7262,7 @@
         <v>44649</v>
       </c>
       <c r="C8" s="62">
-        <v>44651</v>
+        <v>44657</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>72</v>
@@ -8789,8 +8800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView showZeros="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10629,8 +10640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S18"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10858,7 +10869,9 @@
       <c r="G6" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="36" t="s">
+        <v>151</v>
+      </c>
       <c r="I6" s="53" t="s">
         <v>78</v>
       </c>
@@ -11475,7 +11488,7 @@
         <v>44649</v>
       </c>
       <c r="C17" s="62">
-        <v>44651</v>
+        <v>44657</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>71</v>
@@ -11527,8 +11540,8 @@
       <c r="B18" s="62">
         <v>44652</v>
       </c>
-      <c r="C18" s="8">
-        <v>44652</v>
+      <c r="C18" s="62">
+        <v>44657</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>71</v>
@@ -12772,8 +12785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13889,7 +13902,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -14358,7 +14371,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -14660,23 +14673,45 @@
       <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="62">
+        <v>44652</v>
+      </c>
+      <c r="C35" s="8">
+        <v>44652</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="G35" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="9"/>
+      <c r="O35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="S35" s="3"/>
       <c r="T35" s="13"/>
       <c r="U35" s="3" t="s">
@@ -14748,7 +14783,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14866,7 +14901,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W41" s="13"/>
     </row>
